--- a/data/trans_bre/P5_2-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P5_2-Edad-trans_bre.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -581,22 +581,22 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-13,47</t>
+          <t>-15,25</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-14,23</t>
+          <t>-16,46</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-45,85%</t>
+          <t>-45,78%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-48,81%</t>
+          <t>-48,91%</t>
         </is>
       </c>
     </row>
@@ -609,22 +609,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-28,94; 0,53</t>
+          <t>-34,92; 5,46</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-29,16; -0,38</t>
+          <t>-36,18; 3,76</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-76,74; 2,99</t>
+          <t>-78,93; 32,27</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-77,7; -1,25</t>
+          <t>-80,0; 24,32</t>
         </is>
       </c>
     </row>
@@ -641,22 +641,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-0,76</t>
+          <t>0,39</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,06</t>
+          <t>2,52</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-5,76%</t>
+          <t>3,95%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>7,5%</t>
+          <t>22,01%</t>
         </is>
       </c>
     </row>
@@ -669,22 +669,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-11,4; 9,98</t>
+          <t>-11,97; 12,9</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-10,87; 12,83</t>
+          <t>-10,64; 17,05</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-59,87; 140,64</t>
+          <t>-79,28; 432,2</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-52,77; 156,73</t>
+          <t>-61,05; 385,93</t>
         </is>
       </c>
     </row>
@@ -701,22 +701,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,7</t>
+          <t>-8,62</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-13,43</t>
+          <t>-14,02</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-15,32%</t>
+          <t>-44,2%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-61,7%</t>
+          <t>-59,84%</t>
         </is>
       </c>
     </row>
@@ -729,22 +729,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-10,46; 5,77</t>
+          <t>-22,3; 2,68</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-31,51; -1,74</t>
+          <t>-27,79; -2,21</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-63,14; 91,54</t>
+          <t>-75,65; 32,76</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-86,4; -12,2</t>
+          <t>-81,37; -6,54</t>
         </is>
       </c>
     </row>
@@ -761,22 +761,22 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-4,13</t>
+          <t>-2,21</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-2,07</t>
+          <t>-1,62</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-29,4%</t>
+          <t>-19,69%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-15,17%</t>
+          <t>-14,38%</t>
         </is>
       </c>
     </row>
@@ -789,22 +789,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-12,3; 2,82</t>
+          <t>-11,38; 6,42</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-9,85; 7,31</t>
+          <t>-10,82; 7,11</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-63,89; 31,03</t>
+          <t>-68,7; 126,89</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-57,35; 76,47</t>
+          <t>-65,7; 128,39</t>
         </is>
       </c>
     </row>
@@ -821,22 +821,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-3,4</t>
+          <t>-0,53</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-2,41</t>
+          <t>0,36</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-14,86%</t>
+          <t>-2,38%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-11,0%</t>
+          <t>1,66%</t>
         </is>
       </c>
     </row>
@@ -849,22 +849,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-14,58; 7,86</t>
+          <t>-15,46; 13,22</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-13,45; 8,8</t>
+          <t>-14,22; 14,4</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-50,75; 48,8</t>
+          <t>-54,37; 88,74</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-48,57; 54,7</t>
+          <t>-52,69; 96,76</t>
         </is>
       </c>
     </row>
@@ -881,22 +881,22 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-9,16</t>
+          <t>-17,11</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-8,67</t>
+          <t>-17,57</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-44,05%</t>
+          <t>-56,24%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-41,74%</t>
+          <t>-57,51%</t>
         </is>
       </c>
     </row>
@@ -909,22 +909,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-20,44; 2,31</t>
+          <t>-34,48; 1,93</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-20,14; 2,32</t>
+          <t>-34,53; 1,36</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-75,32; 20,24</t>
+          <t>-85,68; 20,91</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-73,5; 24,88</t>
+          <t>-86,77; 13,94</t>
         </is>
       </c>
     </row>
@@ -941,22 +941,22 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-5,12</t>
+          <t>-6,41</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-6,84</t>
+          <t>-7,33</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-28,84%</t>
+          <t>-33,15%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-34,45%</t>
+          <t>-35,87%</t>
         </is>
       </c>
     </row>
@@ -969,22 +969,29 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-9,19; -1,1</t>
+          <t>-12,11; -1,19</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-12,36; -2,43</t>
+          <t>-12,98; -1,94</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-45,01; -6,07</t>
+          <t>-53,45; -6,3</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-52,47; -13,16</t>
+          <t>-53,66; -11,55</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P5_2-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P5_2-Edad-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -118,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -131,6 +134,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,7 +506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -579,179 +588,127 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-15,25</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-16,46</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-45,78%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-48,91%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-15.25184308535368</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-19.5625173969552</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>-0.4578240829251889</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>-0.5431984973856099</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-34,92; 5,46</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-36,18; 3,76</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-78,93; 32,27</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-80,0; 24,32</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-34.91686572978888</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-38.9936944953367</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>-0.7892777673521769</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>-0.819692819878965</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>5.461038682549479</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>1.647257532411538</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>0.3227397359861613</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>0.1370339069403811</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>25-34</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>0,39</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>2,52</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>3,95%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>22,01%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-11,97; 12,9</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-10,64; 17,05</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-79,28; 432,2</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-61,05; 385,93</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>0.3851419699788763</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>4.693079071789683</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>0.03950609424732881</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>0.4562359037706464</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-8,62</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-14,02</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-44,2%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-59,84%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-11.96652069959417</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-8.075697137414856</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.7927971746080064</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>-0.5384842297007733</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-22,3; 2,68</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-27,79; -2,21</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-75,65; 32,76</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-81,37; -6,54</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>12.89856696955773</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>19.34189506679886</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>4.322022893994509</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>4.949955913797874</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -759,179 +716,127 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-2,21</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-1,62</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-19,69%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-14,38%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-8.624260630532406</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-17.75526889534608</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>-0.4419943557190389</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>-0.6597524367783986</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-11,38; 6,42</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-10,82; 7,11</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-68,7; 126,89</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-65,7; 128,39</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-22.29693222862393</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-33.85893199357458</v>
+      </c>
+      <c r="E11" s="6" t="n">
+        <v>-0.7564538220578634</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>-0.8506015714172891</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>2.679471482266817</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>-4.909166573215855</v>
+      </c>
+      <c r="E12" s="6" t="n">
+        <v>0.3276181564552347</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>-0.2496699218018435</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-0,53</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>0,36</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-2,38%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>1,66%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-15,46; 13,22</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-14,22; 14,4</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-54,37; 88,74</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-52,69; 96,76</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>-2.211269394202516</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>1.503625217041693</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>-0.1969048823811086</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>0.1392748841187625</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-17,11</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-17,57</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-56,24%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-57,51%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-11.37978773240171</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-7.924431509507881</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.687001561302084</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>-0.5421949434798027</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-34,48; 1,93</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-34,53; 1,36</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-85,68; 20,91</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-86,77; 13,94</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>6.42006639286517</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>12.09960177157859</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>1.268931825741977</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>2.152789501268578</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -939,57 +844,189 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>-6,41</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>-7,33</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-33,15%</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>-35,87%</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>-0.5291464652343564</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>-0.7210296948890749</v>
+      </c>
+      <c r="E16" s="6" t="n">
+        <v>-0.02383815522794146</v>
+      </c>
+      <c r="F16" s="6" t="n">
+        <v>-0.03229892280375354</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-12,11; -1,19</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-12,98; -1,94</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-53,45; -6,3</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>-53,66; -11,55</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-15.4607484516694</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-15.56085927601957</v>
+      </c>
+      <c r="E17" s="6" t="n">
+        <v>-0.5436760622245164</v>
+      </c>
+      <c r="F17" s="6" t="n">
+        <v>-0.5457859820967985</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>13.2189186270575</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>12.96259320631463</v>
+      </c>
+      <c r="E18" s="6" t="n">
+        <v>0.8874147843028201</v>
+      </c>
+      <c r="F18" s="6" t="n">
+        <v>0.8501754290642813</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>-17.10850804558752</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>-13.69717389981027</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>-0.5624030916776817</v>
+      </c>
+      <c r="F19" s="6" t="n">
+        <v>-0.5022355251150316</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>-34.47506399591395</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>-30.9758012216392</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>-0.8567572703765418</v>
+      </c>
+      <c r="F20" s="6" t="n">
+        <v>-0.8480160592447907</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>1.925854538512255</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>5.061746712826277</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>0.209118657598179</v>
+      </c>
+      <c r="F21" s="6" t="n">
+        <v>0.3795274716906367</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>-6.405572971338048</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>-6.87918496474181</v>
+      </c>
+      <c r="E22" s="6" t="n">
+        <v>-0.3315265366729996</v>
+      </c>
+      <c r="F22" s="6" t="n">
+        <v>-0.3351828279199141</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-12.10577173717635</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-13.01740801807667</v>
+      </c>
+      <c r="E23" s="6" t="n">
+        <v>-0.5344612655673151</v>
+      </c>
+      <c r="F23" s="6" t="n">
+        <v>-0.5349805652109354</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>-1.186006603795377</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>-1.320074172552444</v>
+      </c>
+      <c r="E24" s="6" t="n">
+        <v>-0.06299789808106061</v>
+      </c>
+      <c r="F24" s="6" t="n">
+        <v>-0.06870566913581307</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -997,16 +1034,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
